--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -1,152 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7B2F5-4FEE-4E0E-8513-69978BE75CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20280" yWindow="-8595" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Representante</t>
-  </si>
-  <si>
-    <t>Cargo Representante</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Cep/Cidade</t>
-  </si>
-  <si>
-    <t>Contato</t>
-  </si>
-  <si>
-    <t>LENOVO TECNOLOGIA BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>MGE MEDICOES ELETRICAS LTDA</t>
-  </si>
-  <si>
-    <t>WESTERN DIGITAL DO BRASIL</t>
-  </si>
-  <si>
-    <t>OVD IMPORTADORA E DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>FOCKINK INDUSTRIAS ELETRICAS LTDA</t>
-  </si>
-  <si>
-    <t>NOVA MOTORES E GERADORES ELETRICOS LTDA</t>
-  </si>
-  <si>
-    <t>Daniela Marostica</t>
-  </si>
-  <si>
-    <t>Cesar Souza</t>
-  </si>
-  <si>
-    <t>Alexandre Janonni</t>
-  </si>
-  <si>
-    <t>Wagner Granelli</t>
-  </si>
-  <si>
-    <t>Edomir Schmidt</t>
-  </si>
-  <si>
-    <t>Juliano Westphal</t>
-  </si>
-  <si>
-    <t>Ger Senior Estrategia &amp; Ppb</t>
-  </si>
-  <si>
-    <t>Diretor Adm e Financei</t>
-  </si>
-  <si>
-    <t>Country Manag</t>
-  </si>
-  <si>
-    <t>te Tecnico</t>
-  </si>
-  <si>
-    <t>Coordenador de P&amp;</t>
-  </si>
-  <si>
-    <t>Engenharia de Prod</t>
-  </si>
-  <si>
-    <t>Estr Municipal 200 - Modulo 5 A 10</t>
-  </si>
-  <si>
-    <t>Travessa Doutor Heinzelmann, 325</t>
-  </si>
-  <si>
-    <t>Av Cauaxi 350 - Sl 703 e 704</t>
-  </si>
-  <si>
-    <t>R Joao Bettega 2876 - Portao</t>
-  </si>
-  <si>
-    <t>Avenida Presidente Kennedy 3312</t>
-  </si>
-  <si>
-    <t>R Ponte Pensil 743 Anexo A Bairro Centro</t>
-  </si>
-  <si>
-    <t>CEP 13337-200 · Indaiatuba · SP</t>
-  </si>
-  <si>
-    <t>CEP 90240-100 · Porto Alegre · RS</t>
-  </si>
-  <si>
-    <t>CEP 06454-020 · Barueri · SP</t>
-  </si>
-  <si>
-    <t>CEP 81070-900 · Curitiba · PR</t>
-  </si>
-  <si>
-    <t>CEP 98280-000 · Panambi · RS</t>
-  </si>
-  <si>
-    <t>CEP 89275-000 · Schroeder · SC</t>
-  </si>
-  <si>
-    <t>Fone: 19 3932-5445</t>
-  </si>
-  <si>
-    <t>Fone:  51 3575-2713</t>
-  </si>
-  <si>
-    <t>Fone:  11 2167-3904 · Fax: 11 2167-3904</t>
-  </si>
-  <si>
-    <t>Fone: 41 2101-2500 · Fax: 41 2101-2500</t>
-  </si>
-  <si>
-    <t>Fone:  55 99158-8643 · Fax:  55 3375 9500</t>
-  </si>
-  <si>
-    <t>Fone:  47 3481-8400 · Fax:  47 3481-8400</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +34,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,27 +50,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -200,20 +64,26 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +157,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +209,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,172 +402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
+    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -1,31 +1,980 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7B2F5-4FEE-4E0E-8513-69978BE75CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-8595" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="318">
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Representante</t>
+  </si>
+  <si>
+    <t>Cargo Representante</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Cep/Cidade</t>
+  </si>
+  <si>
+    <t>Contato</t>
+  </si>
+  <si>
+    <t>Cliente Nº</t>
+  </si>
+  <si>
+    <t>LENOVO TECNOLOGIA BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MGE MEDICOES ELETRICAS LTDA</t>
+  </si>
+  <si>
+    <t>WESTERN DIGITAL DO BRASIL</t>
+  </si>
+  <si>
+    <t>OVD IMPORTADORA E DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>FOCKINK INDUSTRIAS ELETRICAS LTDA</t>
+  </si>
+  <si>
+    <t>NOVA MOTORES E GERADORES ELETRICOS LTDA</t>
+  </si>
+  <si>
+    <t>KAP COMPONENTES ELETRICOS LTDA</t>
+  </si>
+  <si>
+    <t>ALTUS SISTEMAS DE AUTOMACAO S/A</t>
+  </si>
+  <si>
+    <t>ADVANCE TECNOLOGIA EIRELI</t>
+  </si>
+  <si>
+    <t>ASTEN &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>ACUMULADORES MOURA S/A</t>
+  </si>
+  <si>
+    <t>QUALCOMM SERV DE TELECOMUNICACOES LTDA</t>
+  </si>
+  <si>
+    <t>POWERPC COM DE EQUIP DE INFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>RADIAL INDUSTRIA METALURGICA LTDA</t>
+  </si>
+  <si>
+    <t>UTILI IND COM EQPS ELETRO-ELETRON EIRELI</t>
+  </si>
+  <si>
+    <t>ABB AUTOMACAO LTDA</t>
+  </si>
+  <si>
+    <t>COMPALEAD ELETRON DO BRASIL IND COM LTDA</t>
+  </si>
+  <si>
+    <t>BLACK &amp; DECKER DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>BROTHER INTERNAT CORPORAT DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>RTA REDE DE TECNOLOGIA AVANCADA LTDA</t>
+  </si>
+  <si>
+    <t>HITACHI ENERGY BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>SIEMENS INFRAESTRUTURA E INDUSTRIA LTDA</t>
+  </si>
+  <si>
+    <t>ARRIS INDUSTRIA ELETRONICA DO BRASIL LTD</t>
+  </si>
+  <si>
+    <t>BEL MICRO COMPUTADORES LTDA</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL S/A</t>
+  </si>
+  <si>
+    <t>NBN AUTOMACAO INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>CONSTANTA INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>ADATA INTEGRATION BRAZIL S/A</t>
+  </si>
+  <si>
+    <t>NEWTESC TECNOL E COMERCIO EIRELI</t>
+  </si>
+  <si>
+    <t>SCHNEIDER EL BRASIL AUTOMACAO PROC LTDA</t>
+  </si>
+  <si>
+    <t>TEIKON TECNOLOGIA INDUSTRIAL S/A</t>
+  </si>
+  <si>
+    <t>MULTILASER IND EQUIP INFORM ELET OPT LTD</t>
+  </si>
+  <si>
+    <t>FIBRACEM TELEINFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>WEIDMULLER CONEXEL DO BRASIL CON EL LTDA</t>
+  </si>
+  <si>
+    <t>CLARIOS ENERGY SOLUTIONS BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>INTEL SEMICONDUTORES DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MAXGEN COM IND IMP E EXP LTDA</t>
+  </si>
+  <si>
+    <t>RS INDUSTRIA ELETRONICA LTDA</t>
+  </si>
+  <si>
+    <t>FULL GAUGE ELETRO CONTROLES LTDA</t>
+  </si>
+  <si>
+    <t>CEBRA CONVERSORES ESTATICOS BRASILE LTDA</t>
+  </si>
+  <si>
+    <t>CERAMICA SANTA TEREZINHA S/A</t>
+  </si>
+  <si>
+    <t>PEGASUS TECHNOLOGY EQUI ELETRONICOS LTDA</t>
+  </si>
+  <si>
+    <t>TRAMONTINA ELETRIK S/A</t>
+  </si>
+  <si>
+    <t>LITE ON MOBILE IND E COM DE PLASTIC LTDA</t>
+  </si>
+  <si>
+    <t>WEGO SISTEMAS - FAB DE COMP ELETRON LTDA</t>
+  </si>
+  <si>
+    <t>SERTTEL SOLU EM MOBILI E SEG URBANA LTDA</t>
+  </si>
+  <si>
+    <t>COELMATIC S.A.</t>
+  </si>
+  <si>
+    <t>DANVAL INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>SIPVOX TECNOLOGIA DA INFORMACAO LTDA-ME</t>
+  </si>
+  <si>
+    <t>TOLEDO DO BRASIL IND DE BALANCAS LTDA</t>
+  </si>
+  <si>
+    <t>ALTRA IND MOTION DO BR EQUIP INDUST LTDA</t>
+  </si>
+  <si>
+    <t>DUTOPLAST DO BRASIL IND PLASTICOS LTDA</t>
+  </si>
+  <si>
+    <t>HEWLETT-PACKARD BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MOTOROLA SOLUTIONS LTDA</t>
+  </si>
+  <si>
+    <t>Daniela Marostica</t>
+  </si>
+  <si>
+    <t>Cesar Souza</t>
+  </si>
+  <si>
+    <t>Alexandre Janonni</t>
+  </si>
+  <si>
+    <t>Wagner Granelli</t>
+  </si>
+  <si>
+    <t>Edomir Schmidt</t>
+  </si>
+  <si>
+    <t>Juliano Westphal</t>
+  </si>
+  <si>
+    <t>Sergio Carlos Cordeiro</t>
+  </si>
+  <si>
+    <t>Augusto Hafemeister</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Wolke</t>
+  </si>
+  <si>
+    <t>Mauricio Eduardo Guilhen</t>
+  </si>
+  <si>
+    <t>Carlos Pessoa</t>
+  </si>
+  <si>
+    <t>Helio Akira Oyama</t>
+  </si>
+  <si>
+    <t>Giselle Alves Costa Teixeira</t>
+  </si>
+  <si>
+    <t>Contato Radial</t>
+  </si>
+  <si>
+    <t>Jussara Attademo Gonzaga P Aguiar</t>
+  </si>
+  <si>
+    <t>Abb Atende</t>
+  </si>
+  <si>
+    <t>Mario Ferreira Filho</t>
+  </si>
+  <si>
+    <t>Sac - Serv de Atendimento Black &amp; Decker</t>
+  </si>
+  <si>
+    <t>Renan Moraes</t>
+  </si>
+  <si>
+    <t>Andre Luis Lopes Bueno</t>
+  </si>
+  <si>
+    <t>Atendimento Hitachi Energy</t>
+  </si>
+  <si>
+    <t>Magno de Almeida Ruivo</t>
+  </si>
+  <si>
+    <t>Rui Procopio S. Filho</t>
+  </si>
+  <si>
+    <t>Sergio Lima</t>
+  </si>
+  <si>
+    <t>Matheus Araujo</t>
+  </si>
+  <si>
+    <t>Andre Luiz Tessele Nodari</t>
+  </si>
+  <si>
+    <t>Roberval A Tavares</t>
+  </si>
+  <si>
+    <t>Paulo Afonso Frias Trindade Junior</t>
+  </si>
+  <si>
+    <t>Gabriel Rodrigues de Jesus</t>
+  </si>
+  <si>
+    <t>Flavio Bemelmans</t>
+  </si>
+  <si>
+    <t>Leandro Schaan Profes</t>
+  </si>
+  <si>
+    <t>Rafael Furukawa</t>
+  </si>
+  <si>
+    <t>Caroline Gruber</t>
+  </si>
+  <si>
+    <t>Flavio Herrera</t>
+  </si>
+  <si>
+    <t>Bruno Penha</t>
+  </si>
+  <si>
+    <t>Emilio Carlos Reboucas Santana Loures</t>
+  </si>
+  <si>
+    <t>Marcelo Mandia Cafe</t>
+  </si>
+  <si>
+    <t>Adrinei Kaiser</t>
+  </si>
+  <si>
+    <t>Maicon Giesch</t>
+  </si>
+  <si>
+    <t>Alexandre D'avila da Cunha</t>
+  </si>
+  <si>
+    <t>Adilson Pereira</t>
+  </si>
+  <si>
+    <t>Gislayne dos Santos</t>
+  </si>
+  <si>
+    <t>Cristiano Veronese</t>
+  </si>
+  <si>
+    <t>Ednaldo Silva</t>
+  </si>
+  <si>
+    <t>Ederson Candido</t>
+  </si>
+  <si>
+    <t>Leonardo Nunes</t>
+  </si>
+  <si>
+    <t>Fernando Lemos</t>
+  </si>
+  <si>
+    <t>Giuliano Cristiano Savattero</t>
+  </si>
+  <si>
+    <t>Breno Gustavo de Lima</t>
+  </si>
+  <si>
+    <t>Helio Vicente Pereira Martins</t>
+  </si>
+  <si>
+    <t>Jonatas Ribeiro</t>
+  </si>
+  <si>
+    <t>Rodrigo Suardi Gualdieri</t>
+  </si>
+  <si>
+    <t>Eduardo Franco</t>
+  </si>
+  <si>
+    <t>Krishna Formiga</t>
+  </si>
+  <si>
+    <t>Ger Senior Estrategia &amp; Ppb</t>
+  </si>
+  <si>
+    <t>Diretor Adm e Financeiro</t>
+  </si>
+  <si>
+    <t>Country Manager</t>
+  </si>
+  <si>
+    <t>Gerente Tecnico</t>
+  </si>
+  <si>
+    <t>Coordenador de P&amp;d</t>
+  </si>
+  <si>
+    <t>Engenharia de Produto</t>
+  </si>
+  <si>
+    <t>Gerente de Engenharia</t>
+  </si>
+  <si>
+    <t>Gerente de Marketing</t>
+  </si>
+  <si>
+    <t>Diretor</t>
+  </si>
+  <si>
+    <t>Gerente de Vendas</t>
+  </si>
+  <si>
+    <t>Gerente de Negocios</t>
+  </si>
+  <si>
+    <t>Dir Desenvolvimento Produtos</t>
+  </si>
+  <si>
+    <t>Gerente Contabil</t>
+  </si>
+  <si>
+    <t>Socia</t>
+  </si>
+  <si>
+    <t>Atendimento ao Cliente</t>
+  </si>
+  <si>
+    <t>Gerente de Projetos P&amp;d</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Diretor de Engenharia</t>
+  </si>
+  <si>
+    <t>Gestao da Qualidade</t>
+  </si>
+  <si>
+    <t>Diretor da Planta - Manaus</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Presidente</t>
+  </si>
+  <si>
+    <t>Gerente Adm e Financeiro</t>
+  </si>
+  <si>
+    <t>Gerente Desenvol de Negocios</t>
+  </si>
+  <si>
+    <t>Diretor de Marketing e P&amp;d</t>
+  </si>
+  <si>
+    <t>Gerente de P&amp;d</t>
+  </si>
+  <si>
+    <t>Coordenadora de Marketing</t>
+  </si>
+  <si>
+    <t>Gerente de Produto</t>
+  </si>
+  <si>
+    <t>Engenharia</t>
+  </si>
+  <si>
+    <t>Dir Politicas Publicas Brasil</t>
+  </si>
+  <si>
+    <t>Diretor Geral</t>
+  </si>
+  <si>
+    <t>Gerente de Projetos</t>
+  </si>
+  <si>
+    <t>Analista Administrativo</t>
+  </si>
+  <si>
+    <t>Superv Fin/cont/fiscal/imp/ti</t>
+  </si>
+  <si>
+    <t>Gerente Financeiro</t>
+  </si>
+  <si>
+    <t>Socio</t>
+  </si>
+  <si>
+    <t>Diretor de Tecnologia</t>
+  </si>
+  <si>
+    <t>Diretor Presidente</t>
+  </si>
+  <si>
+    <t>Coordenador Tributario</t>
+  </si>
+  <si>
+    <t>Gerente Comercial</t>
+  </si>
+  <si>
+    <t>Gerente de Estrategia</t>
+  </si>
+  <si>
+    <t>Dir Relacoes Governamentais</t>
+  </si>
+  <si>
+    <t>Estr Municipal 200 - Modulo 5 A 10</t>
+  </si>
+  <si>
+    <t>Travessa Doutor Heinzelmann, 325</t>
+  </si>
+  <si>
+    <t>Av Cauaxi 350 - Sl 703 e 704</t>
+  </si>
+  <si>
+    <t>R Joao Bettega 2876 - Portao</t>
+  </si>
+  <si>
+    <t>Avenida Presidente Kennedy 3312</t>
+  </si>
+  <si>
+    <t>R Ponte Pensil 743 Anexo A Bairro Centro</t>
+  </si>
+  <si>
+    <t>R Carmo do Rio Verde 78 - Santo Amaro</t>
+  </si>
+  <si>
+    <t>Av Theodomiro Porto da Fonseca 3101-l 01</t>
+  </si>
+  <si>
+    <t>R Cel Evaristo 1452</t>
+  </si>
+  <si>
+    <t>R Clark 771 - Bairro Macuco</t>
+  </si>
+  <si>
+    <t>R Herminio Alves de Queiroz 65</t>
+  </si>
+  <si>
+    <t>Av Jorn Roberto Marinho 85 -6 A-tower Br</t>
+  </si>
+  <si>
+    <t>Av Ivai 425 - Bairro Dom Bosco</t>
+  </si>
+  <si>
+    <t>R Hirovo Kaminobo 430 - Jd Colonia</t>
+  </si>
+  <si>
+    <t>R dos Guajajaras 40 - Sl 306 - Centro</t>
+  </si>
+  <si>
+    <t>Rod Sen Jose Erminio de Moraes Km 11</t>
+  </si>
+  <si>
+    <t>R Kanebo 175 - Galpao C 6 - Distr Indl</t>
+  </si>
+  <si>
+    <t>Rod Br 50 Sn Km 167 Lot 5/parte Quadra</t>
+  </si>
+  <si>
+    <t>Av Paulista 854 - 15 Andar</t>
+  </si>
+  <si>
+    <t>Rua Santa Monica, 651</t>
+  </si>
+  <si>
+    <t>Av Monteiro Lobato 3411</t>
+  </si>
+  <si>
+    <t>Av Mutinga 3800 - 5 And</t>
+  </si>
+  <si>
+    <t>Av Torquato Tapajos 9475 - Taruma</t>
+  </si>
+  <si>
+    <t>Anel Rodoviario Celso Mello Azevedo 3713</t>
+  </si>
+  <si>
+    <t>Av Nacoes Unidas 12995 - 32 And</t>
+  </si>
+  <si>
+    <t>R Tenente Ary Tarrago 3295</t>
+  </si>
+  <si>
+    <t>Av Tegula 888 - Ed Onix Un 09</t>
+  </si>
+  <si>
+    <t>Rod Sp 340 - Km 142.2-s/n -unid Aut 202a</t>
+  </si>
+  <si>
+    <t>Estrada Rosa Scarpa 41</t>
+  </si>
+  <si>
+    <t>Av Nacoes Unidas 23223 - Parte A</t>
+  </si>
+  <si>
+    <t>Rod Br-116, 2740 - Sala A</t>
+  </si>
+  <si>
+    <t>R Josefa Gomes de Souza 382</t>
+  </si>
+  <si>
+    <t>Rua Perola, 434 - Emiliano Perneta</t>
+  </si>
+  <si>
+    <t>Av Presidente Juscelino 642- Piraporinha</t>
+  </si>
+  <si>
+    <t>Av Independencia 2757 - Eden</t>
+  </si>
+  <si>
+    <t>Av Dr Chucri Zaidan 940 - 10 And</t>
+  </si>
+  <si>
+    <t>R Haddock Lobo 585 - 2 And</t>
+  </si>
+  <si>
+    <t>R Eng Fernando de Abreu Pereira 614</t>
+  </si>
+  <si>
+    <t>R Julio de Castilhos 250</t>
+  </si>
+  <si>
+    <t>R Luiz Caldeira 67</t>
+  </si>
+  <si>
+    <t>Av Jorge Duprat Figueiredo 901</t>
+  </si>
+  <si>
+    <t>Rua Marechal Castelo Branco, 784</t>
+  </si>
+  <si>
+    <t>Rod Br 470/rs Km 230 - Bairro Triangulo</t>
+  </si>
+  <si>
+    <t>Av. Torquato Tapajos, 7891 - Taruma</t>
+  </si>
+  <si>
+    <t>Rua Santa Izabel,93 Bairro Santo Angelo</t>
+  </si>
+  <si>
+    <t>R Poeta Carlos Drummond de Andrade 500</t>
+  </si>
+  <si>
+    <t>R Clelia 1810 - Lapa</t>
+  </si>
+  <si>
+    <t>R Eneas de Barros 593 - Penha</t>
+  </si>
+  <si>
+    <t>R Nossa Senhora de Fatima 49 - A</t>
+  </si>
+  <si>
+    <t>R Manoel Cremonesi 1 - Jd. Belita</t>
+  </si>
+  <si>
+    <t>Av Joao Paulo Ablas, 2970</t>
+  </si>
+  <si>
+    <t>R Sao Teodoro 862/950 - Itaquera</t>
+  </si>
+  <si>
+    <t>Rod Sp 340 Km 118.5</t>
+  </si>
+  <si>
+    <t>Av Magalhaes de Castro 4800 - 8 And</t>
+  </si>
+  <si>
+    <t>CEP 13337-200 · Indaiatuba · SP</t>
+  </si>
+  <si>
+    <t>CEP 90240-100 · Porto Alegre · RS</t>
+  </si>
+  <si>
+    <t>CEP 06454-020 · Barueri · SP</t>
+  </si>
+  <si>
+    <t>CEP 81070-900 · Curitiba · PR</t>
+  </si>
+  <si>
+    <t>CEP 98280-000 · Panambi · RS</t>
+  </si>
+  <si>
+    <t>CEP 89275-000 · Schroeder · SC</t>
+  </si>
+  <si>
+    <t>CEP 04729-010 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 93022-715 · Sao Leopoldo · RS</t>
+  </si>
+  <si>
+    <t>CEP 95600-022 · Taquara · RS</t>
+  </si>
+  <si>
+    <t>CEP 13279-400 · Valinhos · SP</t>
+  </si>
+  <si>
+    <t>CEP 54400-230 · Jaboatao dos Guararapes · PE</t>
+  </si>
+  <si>
+    <t>CEP 04576-000 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 30850-000 · Belo Horizonte · MG</t>
+  </si>
+  <si>
+    <t>CEP 08260-160 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 30180-100 · Belo Horizonte · MG</t>
+  </si>
+  <si>
+    <t>CEP 18087-125 · Sorocaba · SP</t>
+  </si>
+  <si>
+    <t>CEP 13213-090 · Jundiai · SP</t>
+  </si>
+  <si>
+    <t>CEP 38056-580 · Uberaba · MG</t>
+  </si>
+  <si>
+    <t>CEP 01310-100 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 06715-865 · Cotia · SP</t>
+  </si>
+  <si>
+    <t>CEP 07190-904 · Guarulhos · SP</t>
+  </si>
+  <si>
+    <t>CEP 05110-902 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 69041-025 · Manaus · AM</t>
+  </si>
+  <si>
+    <t>CEP 30622-213 · Belo Horizonte · MG</t>
+  </si>
+  <si>
+    <t>CEP 04578-000 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 91225-002 · Porto Alegre · RS</t>
+  </si>
+  <si>
+    <t>CEP 12952-820 · Atibaia · SP</t>
+  </si>
+  <si>
+    <t>CEP 13830-000 · Santo Antonio de Posse · SP</t>
+  </si>
+  <si>
+    <t>CEP 06513-010 · Santana de Parnaiba · SP</t>
+  </si>
+  <si>
+    <t>CEP 04795-907 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 93212-220 · Sapucaia do Sul · RS</t>
+  </si>
+  <si>
+    <t>CEP 37640-000 · Extrema · MG</t>
+  </si>
+  <si>
+    <t>CEP 83325-200 · Pinhais · PR</t>
+  </si>
+  <si>
+    <t>CEP 09950-370 · Diadema · SP</t>
+  </si>
+  <si>
+    <t>CEP 18087-101 · Sorocaba · SP</t>
+  </si>
+  <si>
+    <t>CEP 04583-110 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 01414-001 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 91130-030 · Porto Alegre · RS</t>
+  </si>
+  <si>
+    <t>CEP 92120-030 · Canoas · RS</t>
+  </si>
+  <si>
+    <t>CEP 88034-110 · Florianopolis · SC</t>
+  </si>
+  <si>
+    <t>CEP 13920-000 · Pedreira · SP</t>
+  </si>
+  <si>
+    <t>CEP 95185-000 · Carlos Barbosa · RS</t>
+  </si>
+  <si>
+    <t>CEP 94920-550 · Cachoeirinha · RS</t>
+  </si>
+  <si>
+    <t>CEP 50950-060 · Recife · PE</t>
+  </si>
+  <si>
+    <t>CEP 05042-001 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 03613-000 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 14700-150 · Bebedouro · SP</t>
+  </si>
+  <si>
+    <t>CEP 09851-330 · Sao Bernardo do Campo · SP</t>
+  </si>
+  <si>
+    <t>CEP 06711-250 · Cotia · SP</t>
+  </si>
+  <si>
+    <t>CEP 08290-000 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>CEP 13076-970 · Campinas · SP</t>
+  </si>
+  <si>
+    <t>CEP 05676-120 · Sao Paulo · SP</t>
+  </si>
+  <si>
+    <t>Fone: 19 3932-5445</t>
+  </si>
+  <si>
+    <t>Fone:  51 3575-2713</t>
+  </si>
+  <si>
+    <t>Fone:  11 2167-3904 · Fax: 11 2167-3904</t>
+  </si>
+  <si>
+    <t>Fone: 41 2101-2500 · Fax: 41 2101-2500</t>
+  </si>
+  <si>
+    <t>Fone:  55 99158-8643 · Fax:  55 3375 9500</t>
+  </si>
+  <si>
+    <t>Fone:  47 3481-8400 · Fax:  47 3481-8400</t>
+  </si>
+  <si>
+    <t>Fone: 11 5645-4444 · Fax: 11 5641-1486</t>
+  </si>
+  <si>
+    <t>Fone: 51 3589-9539 · Fax: 51 3589-9501</t>
+  </si>
+  <si>
+    <t>Fone: 51 3541-0700 · Fax: 51 3541-0700</t>
+  </si>
+  <si>
+    <t>Fone: 19 2122-9700 · Fax: 19 2122-9782</t>
+  </si>
+  <si>
+    <t>Fone: 81 2121-1600 · Fax: 81 2121-1644</t>
+  </si>
+  <si>
+    <t>Fone: 11 5503-4500 · Fax: 11 5505-9362</t>
+  </si>
+  <si>
+    <t>Fone:  31 2519-0442</t>
+  </si>
+  <si>
+    <t>Fone: 11 3576-0299 · Fax: 11 2053-4100</t>
+  </si>
+  <si>
+    <t>Fone: 31 3232-0400 · Fax: 31 3232-0401</t>
+  </si>
+  <si>
+    <t>Fone:  11 3688-9356</t>
+  </si>
+  <si>
+    <t>Fone: 11 3109-6500</t>
+  </si>
+  <si>
+    <t>Fone: 0800  703-4644 · Fax: 34 3318-3018</t>
+  </si>
+  <si>
+    <t>Fone: 11 3371-3553 · Fax: 11 3371-3588</t>
+  </si>
+  <si>
+    <t>Fone: 11 2171-3244 · Fax: 11 2171-3224</t>
+  </si>
+  <si>
+    <t>Fone: 11 2464-8188 · Fax: 11 2464-8750</t>
+  </si>
+  <si>
+    <t>Fone: 11 3908-3504 · Fax: 11 3908-3791</t>
+  </si>
+  <si>
+    <t>Fone: 92 3305-1130 · Fax: 92 3305-1130</t>
+  </si>
+  <si>
+    <t>Fone: 31 2532-0301</t>
+  </si>
+  <si>
+    <t>Fone: 11 3787-6100 · Fax: 11 3787-6500</t>
+  </si>
+  <si>
+    <t>Fone: 51 3366-1026 · Fax: 51 3366-2829</t>
+  </si>
+  <si>
+    <t>Fone:  11 4417-7551</t>
+  </si>
+  <si>
+    <t>Fone: 19 3199-0886 · Fax: 19 3199-0886</t>
+  </si>
+  <si>
+    <t>Fone: 11 2774-3362 · Fax:  11 96050-2063</t>
+  </si>
+  <si>
+    <t>Fone:  11 99835-7946</t>
+  </si>
+  <si>
+    <t>Fone: 51 3589-9500</t>
+  </si>
+  <si>
+    <t>Fone: 11 3616-8600</t>
+  </si>
+  <si>
+    <t>Fone:  41  3661-2550</t>
+  </si>
+  <si>
+    <t>Fone: 11 4366-9600</t>
+  </si>
+  <si>
+    <t>Fone: 15 2102-2920</t>
+  </si>
+  <si>
+    <t>Fone: 11 3365-5500 · Fax:  11 99156 8626</t>
+  </si>
+  <si>
+    <t>Fone: 11 2787-0250</t>
+  </si>
+  <si>
+    <t>Fone: 51 3334-8224 · Fax: 51 3334-8224</t>
+  </si>
+  <si>
+    <t>Fone: 51 3475-3308 · Fax: 51 3475-3308</t>
+  </si>
+  <si>
+    <t>Fone: 48 2108-1600 · Fax: 48 2108-1616</t>
+  </si>
+  <si>
+    <t>Fone: 19 3852-8329 · Fax: 19 3893-1742</t>
+  </si>
+  <si>
+    <t>Fone:  47  3374-6326</t>
+  </si>
+  <si>
+    <t>Fone: 54 3461-8200</t>
+  </si>
+  <si>
+    <t>Fone:  92 2123-7786</t>
+  </si>
+  <si>
+    <t>Fone:  51 3471-1356 · Fax:  51 3471-1356</t>
+  </si>
+  <si>
+    <t>Fone:  81 2138-6100 · Fax:  81 2138-6149</t>
+  </si>
+  <si>
+    <t>Fone: 11 2066-3211 · Fax: 11 2066-3211</t>
+  </si>
+  <si>
+    <t>Fone: 11 3775-7700 · Fax: 11 2684-5577</t>
+  </si>
+  <si>
+    <t>Fone: 17 3343-5355 · Fax: 17 3345-4360</t>
+  </si>
+  <si>
+    <t>Fone:  11 4356-9000</t>
+  </si>
+  <si>
+    <t>Fone:  11 4615-6300</t>
+  </si>
+  <si>
+    <t>Fone: 11 2524-9055 · Fax: 11 2524-7699</t>
+  </si>
+  <si>
+    <t>Fone: 19 3399-2106</t>
+  </si>
+  <si>
+    <t>Fone:  11 5171-9200</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +983,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,12 +999,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -64,26 +1028,20 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -125,7 +1083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -157,27 +1115,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,24 +1149,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,20 +1324,1435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>291</v>
+      </c>
+      <c r="H29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>293</v>
+      </c>
+      <c r="H31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>298</v>
+      </c>
+      <c r="H36">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H37">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" t="s">
+        <v>301</v>
+      </c>
+      <c r="H39">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" t="s">
+        <v>302</v>
+      </c>
+      <c r="H40">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>303</v>
+      </c>
+      <c r="H41">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>304</v>
+      </c>
+      <c r="H42">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" t="s">
+        <v>308</v>
+      </c>
+      <c r="H46">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" t="s">
+        <v>255</v>
+      </c>
+      <c r="G47" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H49">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" t="s">
+        <v>313</v>
+      </c>
+      <c r="H51">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>261</v>
+      </c>
+      <c r="G53" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" t="s">
+        <v>317</v>
+      </c>
+      <c r="H55">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0636B0F2-A9BB-4D76-84C4-2B6495C2EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9BD70-5E26-4F07-8A37-9184B9943451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-8595" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,11 +396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9BD70-5E26-4F07-8A37-9184B9943451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC9FEB-A3BE-4B28-940B-3A295348051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,8 +54,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,14 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="58.7109375" style="1"/>
+    <col min="7" max="7" width="58.7109375" style="2"/>
+    <col min="8" max="16384" width="58.7109375" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC9FEB-A3BE-4B28-940B-3A295348051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04382F0-6043-4C6C-ABCA-134DE329D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1725" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,20 +400,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G1"/>
+  <dimension ref="H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A13:A14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="58.7109375" style="1"/>
-    <col min="7" max="7" width="58.7109375" style="2"/>
-    <col min="8" max="16384" width="58.7109375" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04382F0-6043-4C6C-ABCA-134DE329D53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AC7266-C625-47C6-93E9-CE30BDCFA247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AC7266-C625-47C6-93E9-CE30BDCFA247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8432B8-1C93-4D90-8ED7-685EA9040739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,14 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,18 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8432B8-1C93-4D90-8ED7-685EA9040739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49E04E-F045-41AA-BA34-0152F3E1C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="I10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49E04E-F045-41AA-BA34-0152F3E1C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02874C3-1249-4DA3-A883-8AC49273AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="I10:J11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Relatorios/Scraping-ABINEE.xlsx
+++ b/Relatorios/Scraping-ABINEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02874C3-1249-4DA3-A883-8AC49273AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC50205-5A44-4B40-BACC-37930FFDA4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,7 +397,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
